--- a/data/trans_bre/P16B08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 35,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; 19,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 55,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 24,29</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 27,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 6,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 38,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 7,13</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 29,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; -3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 32,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 41,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; -3,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 51,14</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 18,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -1,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 9,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 23,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -1,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 10,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 35,63</t>
+          <t>-3,97; 34,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,0</t>
+          <t>-8,58; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 19,94</t>
+          <t>-4,92; 20,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 55,45</t>
+          <t>-3,97; 54,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,0</t>
+          <t>-8,58; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 24,29</t>
+          <t>-4,94; 25,48</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 27,81</t>
+          <t>-1,34; 26,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,0</t>
+          <t>-5,22; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 6,63</t>
+          <t>-3,81; 7,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 38,79</t>
+          <t>-1,34; 36,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,0</t>
+          <t>-5,22; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 7,13</t>
+          <t>-3,85; 8,36</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,28</t>
+          <t>0,0; 30,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,81; -3,07</t>
+          <t>-29,79; -3,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 32,33</t>
+          <t>-4,78; 31,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,38</t>
+          <t>0,0; 43,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,81; -3,07</t>
+          <t>-29,79; -3,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 51,14</t>
+          <t>-4,78; 48,37</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 18,84</t>
+          <t>1,21; 18,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 9,3</t>
+          <t>-1,62; 9,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 23,4</t>
+          <t>1,26; 22,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,59</t>
+          <t>-1,63; 11,25</t>
         </is>
       </c>
     </row>
